--- a/data_files/data/patient_data.xlsx
+++ b/data_files/data/patient_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8395DA8-44FC-4DF8-8DCA-32D9CB623534}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44DBDF44-D5E1-AA42-BC79-6BAFFD4C4AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df" sheetId="2" r:id="rId1"/>
@@ -393,15 +393,15 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.04296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.31640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>3200</v>
       </c>
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>3201</v>
       </c>
@@ -440,7 +440,7 @@
         <v>2.2961682720152541</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3202</v>
       </c>
@@ -454,7 +454,7 @@
         <v>3.076229546498193</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3203</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3204</v>
       </c>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3205</v>
       </c>
@@ -490,7 +490,7 @@
         <v>2.7196551715598578</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3206</v>
       </c>
@@ -504,7 +504,7 @@
         <v>2.2045604833248622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>3207</v>
       </c>
@@ -518,7 +518,7 @@
         <v>-0.32145516771689753</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3208</v>
       </c>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>3209</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>3210</v>
       </c>
@@ -554,7 +554,7 @@
         <v>0.10653381007902429</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>3211</v>
       </c>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>3212</v>
       </c>
@@ -579,7 +579,7 @@
         <v>9.9440981056570149E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3213</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3214</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3215</v>
       </c>
@@ -615,7 +615,7 @@
         <v>3.5385607254335869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3216</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3217</v>
       </c>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3218</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3219</v>
       </c>
@@ -662,7 +662,7 @@
         <v>4.0399538436930644</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3220</v>
       </c>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>3221</v>
       </c>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3222</v>
       </c>
@@ -698,7 +698,7 @@
         <v>2.6351165861499699</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>3223</v>
       </c>
@@ -712,7 +712,7 @@
         <v>3.3933658795777579</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>3224</v>
       </c>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3225</v>
       </c>
@@ -737,7 +737,7 @@
         <v>1.938974726053301</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>3226</v>
       </c>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3227</v>
       </c>
@@ -762,7 +762,7 @@
         <v>4.2799273793134551</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>3228</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>3229</v>
       </c>
@@ -787,7 +787,7 @@
         <v>3.832945220793659</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>3230</v>
       </c>
@@ -801,7 +801,7 @@
         <v>4.9406252044734611</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>3231</v>
       </c>
@@ -815,7 +815,7 @@
         <v>1.310247937548886</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>3232</v>
       </c>
@@ -829,7 +829,7 @@
         <v>3.045778234624668</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>3233</v>
       </c>
@@ -843,7 +843,7 @@
         <v>7.1978021977559683</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>3234</v>
       </c>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>3235</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>3236</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1.8634446144293819</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>3237</v>
       </c>
@@ -893,7 +893,7 @@
         <v>5.1543696163282977</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>3238</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>3239</v>
       </c>
@@ -918,7 +918,7 @@
         <v>6.7107880351489628</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>3240</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>3241</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>3242</v>
       </c>
@@ -957,7 +957,7 @@
         <v>3.665809873786805</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>3243</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>3244</v>
       </c>
@@ -982,7 +982,7 @@
         <v>1.5655637814988019</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>3245</v>
       </c>
@@ -996,7 +996,7 @@
         <v>3.0399706644265319</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>3246</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>1.0118200761065339</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>3247</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>2.4282007109284982</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>3248</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1.867708265556</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>3249</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>3250</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>3.2618128540988018</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>3251</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>3.1715530242501559</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>3252</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>3253</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>4.479818596621171</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>3254</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>3255</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>2.2082922440685411</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>3256</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>1.63568592476695</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>3257</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>1.7032826188337611</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>3258</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>3259</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>6.1390659806346317</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>3260</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>3261</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>4.6479249649536927</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>3262</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>3263</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>5.7245009564177716</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>3264</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>3265</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>1.13154490670654</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>3266</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>3267</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>5.039908693339556</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>3268</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1.3876593573500291</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>3269</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>3270</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>3.665793638013592</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>3271</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>0.94896303784804792</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>3272</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>3273</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>3274</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>1.866505202724299</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>3275</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0.85400715431937035</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>3276</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>3277</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>3278</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>3279</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>3280</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>3281</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>6.0295942149213433</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>3282</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>3283</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>4.4814844221841712</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>3284</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>3285</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>4.4116105742286944</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>3286</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>3.44721613509356</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>3287</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>2.1331338833229649</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>3288</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>1.1211970314784421</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>3289</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>3.181381767878142</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>3290</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>3291</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>3292</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>3293</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>3294</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>2.5795985204790591E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>3295</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>2.7619480393962101</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>3296</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>3297</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>5.456121009026961</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>3298</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>3299</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>3300</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>2.9641107017541999</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>3301</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>4.2921392723631806</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>3302</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>3303</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>3304</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>4.9443860015671426</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>3305</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0.55347707842447402</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>3306</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>4.0623587795954608</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>3307</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>-0.1079316982497129</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>3308</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>1.073611993834189</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>3309</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>3310</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>3311</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>-0.14553517554596601</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>3312</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>3313</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>2.097026761669273</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>3314</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>3315</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>0.692162864133259</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>3316</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>3317</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>3318</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0.1186609914257561</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>3319</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>3320</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>3321</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>3322</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>3.949395605889193</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>3323</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>3324</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>3.906169520950312</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>3325</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>3326</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>3327</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>3.3558123689675581</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>3328</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>3.249174074594785</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>3329</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>3330</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>3331</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>3332</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>3.357438118245283</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>3333</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>3334</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>3335</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>3336</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>3337</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>5.1207637393339853</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>3338</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>3339</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>3340</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>3341</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>1.632020031064779</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>3342</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>1.230021769540151</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>3343</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>3344</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>4.6147473496878346</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>3345</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>3346</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>3.2249548869517621</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>3347</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>3348</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1.1429574555101261</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>3349</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>6.739257676815825</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>3350</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>3351</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>3352</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>1.726673302255967</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>3353</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>0.92395255293958123</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>3354</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>3355</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>2.0818100896590099</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>3356</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>3357</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>2.6620700874383481</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>3358</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>3359</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>3360</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>3361</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>2.1657061617965589</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>3362</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>3.4446286303211768</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>3363</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1.9803754814415711</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>3364</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>3.6707259047388612</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>3365</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>3.9734443210901489</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>3366</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>2.0644458399091841</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>3367</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>2.293832528273589</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>3368</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>3369</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>3.2913298738570318</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>3370</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>3371</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>3372</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>3373</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>5.3998425914575252</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>3374</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>3375</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>3.093791659687505</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>3376</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>3377</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>3378</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>1.675615258729557</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>3379</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>3380</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>3381</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>2.3004982776186051</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>3382</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>2.933092187504283</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>3383</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>3384</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>3385</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>3386</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>3387</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>3388</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>3389</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>4.0871969068997052</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>3390</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>1.7284774906196649</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>3391</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>3.2981808978811951</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>3392</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>5.34520300910562</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>3393</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>5.7103435409326417</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>3394</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>2.3944252529535701</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>3395</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>3396</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>3.2397573213741739</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>3397</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>3398</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>2.1518895417273458</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>3399</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>1.0370508645562619</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>3400</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>2.8516238329021011</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>3401</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>3402</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>3.222398521972647</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>3403</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>3404</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>3405</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0.50966214355390138</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>3406</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>3407</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>3408</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>3.308552542674827</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>3409</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>3410</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>3411</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>3412</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>2.0976156627557749</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>3413</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>2.7942234468748262</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>3414</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>3.8344874517558418</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>3415</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>1.0707789605572811</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>3416</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>3417</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>3.0696346116135649</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>3418</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>3419</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>3420</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>3.2266196003417251</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>3421</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>3422</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>3423</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>2.552439317460466</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>3424</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>5.1683551368647933</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>3425</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>3.469935182618654</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>3426</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1.6974851014757399</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>3427</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>3428</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>3429</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>2.656541148095378</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>3430</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>1.258314194583688</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>3431</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>3432</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>1.734193040762676</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>3433</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>3.1444974090214699</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>3434</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>1.966661464852874</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>3435</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>1.3257235724875041</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>3436</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>2.5061202800798288</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>3437</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>3438</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>3439</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>3440</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>1.04762885612644</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>3441</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>3442</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>1.882453689168019</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>3443</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>3444</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>3445</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>3446</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>3447</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>3.682539460054687</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>3448</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>-0.30654524610680278</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>3449</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>3450</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>3.44183937238089</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>3451</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>3452</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>3453</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>3454</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>2.760740070556619</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>3455</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>2.546673686327797</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>3456</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0.67682429502649732</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>3457</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>3458</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>3459</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>3.001895990877224</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>3460</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>1.4745922393461659</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>3461</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>3462</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0.58859416301028611</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>3463</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>3464</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>3465</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0.69993535394113648</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>3466</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>3467</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>2.1104760636553501</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>3468</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>5.0257935644529574</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>3469</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>3470</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>2.9418019747859931</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>3471</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>3.7475106178803981</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>3472</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>3473</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>3474</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>3.4849028467851841</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>3475</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>3.1394262362036449</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>3476</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0.71379153020104291</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>3477</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>1.326653412198971</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>3478</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>3.6376015218927629</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>3479</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>2.6961218670933111</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>3480</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>3.639113420155347</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>3481</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>1.580010570861359</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>3482</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>5.4025148081947139</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>3483</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>3484</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>3485</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>2.2858555045279312</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>3486</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>3487</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>3488</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>3.8075509486313841</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>3489</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>3490</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>3491</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>3492</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>3493</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>2.5942201011020591</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>3494</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>3495</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>5.1532687799873376</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>3496</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>3497</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>3498</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>3499</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0.1004769899654913</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>3500</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>3501</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>3502</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>3503</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>3.2297428343453292</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>3504</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>2.185913590009823</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>3505</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>3506</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>3507</v>
       </c>
